--- a/data/trans_dic/IP18A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,68</t>
+          <t>3,53; 13,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 18,31</t>
+          <t>5,41; 18,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 14,29</t>
+          <t>2,96; 14,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,98</t>
+          <t>0,0; 31,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 18,62</t>
+          <t>6,6; 19,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 17,36</t>
+          <t>6,31; 17,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,91</t>
+          <t>1,33; 12,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,43</t>
+          <t>0,0; 55,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,02</t>
+          <t>6,28; 13,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 15,1</t>
+          <t>7,14; 15,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,02</t>
+          <t>2,94; 11,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 30,95</t>
+          <t>2,55; 29,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,26</t>
+          <t>5,96; 10,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,86</t>
+          <t>7,93; 12,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,25</t>
+          <t>6,04; 10,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,55</t>
+          <t>1,52; 7,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,61</t>
+          <t>5,39; 9,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,71</t>
+          <t>7,13; 11,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,81</t>
+          <t>8,8; 13,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,84</t>
+          <t>3,43; 14,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,37</t>
+          <t>6,08; 9,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,25</t>
+          <t>8,06; 11,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,26</t>
+          <t>7,98; 11,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,38</t>
+          <t>3,01; 8,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,7</t>
+          <t>6,38; 14,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 13,38</t>
+          <t>5,84; 13,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 15,78</t>
+          <t>8,12; 15,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,71</t>
+          <t>0,0; 17,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,19</t>
+          <t>7,17; 14,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 15,82</t>
+          <t>7,15; 15,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,62</t>
+          <t>3,22; 9,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,33</t>
+          <t>0,0; 18,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,42</t>
+          <t>7,45; 13,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,12</t>
+          <t>7,84; 13,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,58</t>
+          <t>6,55; 11,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,66</t>
+          <t>1,63; 12,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,14</t>
+          <t>6,72; 10,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,9</t>
+          <t>8,13; 11,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,73</t>
+          <t>7,11; 10,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,38</t>
+          <t>2,0; 7,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,52</t>
+          <t>6,59; 10,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,71</t>
+          <t>7,91; 11,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,3</t>
+          <t>7,76; 11,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 12,0</t>
+          <t>4,07; 12,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,68</t>
+          <t>7,32; 9,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,23</t>
+          <t>8,6; 11,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 10,33</t>
+          <t>7,84; 10,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,36</t>
+          <t>3,57; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,38; 18,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>5,87; 17,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 12,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 59,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,55; 14,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 19,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 16,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,95; 14,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>6,97; 15,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 10,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 30,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,7</t>
+          <t>5,25; 9,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 18,68</t>
+          <t>7,18; 11,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 14,44</t>
+          <t>8,93; 13,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,35</t>
+          <t>2,92; 12,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 19,12</t>
+          <t>6,11; 10,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 17,04</t>
+          <t>7,87; 12,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,27</t>
+          <t>5,91; 10,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,7</t>
+          <t>1,52; 7,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,63</t>
+          <t>6,23; 9,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,3</t>
+          <t>8,0; 11,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,1</t>
+          <t>7,98; 11,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 29,68</t>
+          <t>2,91; 8,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,36</t>
+          <t>6,81; 15,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,31</t>
+          <t>7,46; 16,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,44</t>
+          <t>3,38; 9,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,43</t>
+          <t>0,0; 18,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,59</t>
+          <t>6,21; 14,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,86</t>
+          <t>6,08; 13,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,79</t>
+          <t>7,79; 16,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 14,03</t>
+          <t>0,0; 15,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,21</t>
+          <t>7,4; 13,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,34</t>
+          <t>7,57; 13,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,25</t>
+          <t>6,38; 11,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,46</t>
+          <t>1,55; 12,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>9,87%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,28%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 14,58</t>
+          <t>6,81; 10,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 13,68</t>
+          <t>7,98; 11,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 15,59</t>
+          <t>7,76; 11,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,55</t>
+          <t>3,52; 12,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,95</t>
+          <t>6,64; 10,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 15,83</t>
+          <t>8,3; 11,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,89</t>
+          <t>6,86; 10,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,6</t>
+          <t>2,08; 7,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 13,33</t>
+          <t>7,25; 9,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,17</t>
+          <t>8,49; 11,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,58</t>
+          <t>7,91; 10,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 12,54</t>
+          <t>3,39; 8,11</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,01%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,75%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>9,07%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 10,19</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 11,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 10,72</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 7,8</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 10,31</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 11,83</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 11,51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 12,98</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 9,84</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 11,26</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 10,52</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 8,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
